--- a/outputs/fft-DomainToKingdomEukaryota.xlsx
+++ b/outputs/fft-DomainToKingdomEukaryota.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Animals_test-LSVM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Fungi_test-LSVM" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1971,4 +1972,297 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>k__Animals</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>k__Plants</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>k__Protists</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>NC_022167.1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.393795746129445</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.495100158424028</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-7.527124188952903</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>k__Plants</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>NC_022163.1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.02258346576699755</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.551217083588216</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-7.74881346790273</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>k__Plants</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>NC_012621.1</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-15.70608544978146</v>
+      </c>
+      <c r="C4" t="n">
+        <v>50.61735390574906</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-30.24490689185114</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>k__Plants</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>NC_022168.1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-1.240995473364775</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.820839732840966</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-1.820975516666406</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>k__Plants</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>NC_022169.1</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-2.38370972115508</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.057852313542174</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.9734531511466094</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>k__Plants</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>NC_022161.1</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.001380246089244308</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1.063717861992126</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-1.788230780323271</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>k__Animals</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>NC_022166.1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9400345177794835</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.086843254436206</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-4.376112375639161</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>k__Plants</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>NC_012620.1</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-26.41026410563921</v>
+      </c>
+      <c r="C9" t="n">
+        <v>23.16231682112045</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.746405804054346</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>k__Plants</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>NC_022164.1</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.5103226051361012</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.957126976767599</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-6.513648507916616</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>k__Plants</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>NC_022165.1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.928252560419746</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4697034722790355</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-5.344783505504476</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>k__Animals</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>NC_022160.1</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-6.384860148786221</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4.556928443689017</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-2.058335999250477</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>k__Plants</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>NC_022162.1</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-5.659626976606472</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6.363857091149974</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-3.193260908536038</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>k__Plants</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>